--- a/xlsx/柴油_intext.xlsx
+++ b/xlsx/柴油_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>柴油</t>
   </si>
@@ -29,7 +29,7 @@
     <t>石油</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_柴油</t>
+    <t>政策_政策_混合动力车辆_柴油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%B0%A2%E5%8C%96%E5%90%88%E7%89%A9</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>鐵路車輛</t>
+    <t>铁路车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>發電</t>
+    <t>发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E7%A2%B3%E5%BE%AE%E7%B2%92%E6%BF%BE%E6%B8%85%E5%99%A8</t>
   </si>
   <si>
-    <t>柴油碳微粒濾清器</t>
+    <t>柴油碳微粒滤清器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -143,9 +143,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B8%E9%BB%9E</t>
   </si>
   <si>
-    <t>沸點</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E6%B2%B9</t>
   </si>
   <si>
@@ -161,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E8%85%A6%E6%B2%B9</t>
   </si>
   <si>
-    <t>石腦油</t>
+    <t>石脑油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B2%B9</t>
   </si>
   <si>
-    <t>電油</t>
+    <t>电油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E5%BC%95%E6%93%8E</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E7%B2%92%E5%AD%90</t>
   </si>
   <si>
-    <t>懸浮粒子</t>
+    <t>悬浮粒子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AE%E6%B0%A7%E5%8C%96%E7%89%A9</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%B4%E7%99%8C%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>致癌物質</t>
+    <t>致癌物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%9F%B4%E6%B2%B9</t>
@@ -257,13 +254,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>壓縮天然氣</t>
+    <t>压缩天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
+    <t>氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%86%87</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B9%99%E5%9F%BA%E9%89%9B</t>
   </si>
   <si>
-    <t>四乙基鉛</t>
+    <t>四乙基铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E5%9F%BA%E6%A9%A1%E8%83%B6</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/2,6-%E4%BA%8C%E5%8F%94%E4%B8%81%E5%9F%BA%E5%B0%8D%E7%94%B2%E9%85%9A</t>
   </si>
   <si>
-    <t>2,6-二叔丁基對甲酚</t>
+    <t>2,6-二叔丁基对甲酚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1,2-%E4%BA%8C%E6%BA%B4%E4%B9%99%E7%83%B7</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1301,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1330,10 +1327,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1359,10 +1356,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1388,10 +1385,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1417,10 +1414,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1446,10 +1443,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1475,10 +1472,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1504,10 +1501,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1533,10 +1530,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>8</v>
@@ -1562,10 +1559,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1591,10 +1588,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -1649,10 +1646,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1678,10 +1675,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1707,10 +1704,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1736,10 +1733,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1765,10 +1762,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1794,10 +1791,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1823,10 +1820,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1852,10 +1849,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -1881,10 +1878,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1910,10 +1907,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1939,10 +1936,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1968,10 +1965,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1997,10 +1994,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2026,10 +2023,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2055,10 +2052,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2084,10 +2081,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2113,10 +2110,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2142,10 +2139,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2171,10 +2168,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2200,10 +2197,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2229,10 +2226,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2258,10 +2255,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2287,10 +2284,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -2316,10 +2313,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2345,10 +2342,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
